--- a/Documents/UiPath/GoogleFormSubmissionUsingSQLStoredProcedure/Data/Config.xlsx
+++ b/Documents/UiPath/GoogleFormSubmissionUsingSQLStoredProcedure/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shashank\Documents\UiPath\GoogleFormSubmissionUsingSQLStoredProcedure\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE4FDE-0CEF-414D-80A5-30EAF012FF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7D229-BCD5-4442-929D-0D7CA5F3EB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>googleFormURL</t>
   </si>
   <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSekll8o5euWE0SUWOokCvZ7n4PQvHQxK6SoY8EVQ14vl8-dWg/viewform?usp=sf_link</t>
-  </si>
-  <si>
     <t>FormData4</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>C:\Users\shashank\Documents\UiPath\GoogleFormSubmissionUsingSQLStoredProcedure\Data\inputData.xlsx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSdEybGGPndStFw1fNNiuKLXX7lRfaClfCfdpyanZLEoCbYNEQ/viewform?usp=sf_link</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -608,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30">
@@ -627,45 +627,45 @@
         <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
